--- a/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
+++ b/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Success\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\Thoi Khoa Bieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TKB" sheetId="1" r:id="rId1"/>
     <sheet name="Soan Giao an" sheetId="3" r:id="rId2"/>
+    <sheet name="Soan Giao An 2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="40">
   <si>
     <t>Thứ 2</t>
   </si>
@@ -63,18 +64,6 @@
     <t>19h30 - 21h</t>
   </si>
   <si>
-    <t>Elementary 2</t>
-  </si>
-  <si>
-    <t>TOEIC 300-500</t>
-  </si>
-  <si>
-    <t>S&amp;L online</t>
-  </si>
-  <si>
-    <t>Elementary 1</t>
-  </si>
-  <si>
     <t>Suất</t>
   </si>
   <si>
@@ -84,9 +73,6 @@
     <t>THỜI KHÓA BIỂU</t>
   </si>
   <si>
-    <t>TOEIC 500-700</t>
-  </si>
-  <si>
     <t>Sáng</t>
   </si>
   <si>
@@ -112,13 +98,61 @@
   </si>
   <si>
     <t>14:30 - 17:00 Soạn 500-700</t>
+  </si>
+  <si>
+    <t>TOEIC 500-700 K1</t>
+  </si>
+  <si>
+    <t>TOIEC 300-500 K2</t>
+  </si>
+  <si>
+    <t>TOEIC 500-700 Online 1</t>
+  </si>
+  <si>
+    <t>E3-K1</t>
+  </si>
+  <si>
+    <t>E1-K2</t>
+  </si>
+  <si>
+    <t>21h30 - 23h</t>
+  </si>
+  <si>
+    <t>Soạn TOEIC 500-700 K1</t>
+  </si>
+  <si>
+    <t>Soạn E3-K1</t>
+  </si>
+  <si>
+    <t>Soạn E1-K2</t>
+  </si>
+  <si>
+    <t>Soạn S&amp;L Online</t>
+  </si>
+  <si>
+    <t>Soạn 500-700 Online 1</t>
+  </si>
+  <si>
+    <t>TOEIC Speaking &amp; Writing</t>
+  </si>
+  <si>
+    <t>14h-15h</t>
+  </si>
+  <si>
+    <t>Soạn TOEIC 300-500 K2</t>
+  </si>
+  <si>
+    <t>Speaking &amp;Listening Online</t>
+  </si>
+  <si>
+    <t>Soạn TOEIC S&amp;W</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,8 +183,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,8 +264,43 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -211,22 +323,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -249,8 +377,55 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="8">
+    <cellStyle name="Accent1" xfId="2" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="3" builtinId="33"/>
+    <cellStyle name="Accent3" xfId="4" builtinId="37"/>
+    <cellStyle name="Accent4" xfId="5" builtinId="41"/>
+    <cellStyle name="Accent5" xfId="6" builtinId="45"/>
+    <cellStyle name="Accent6" xfId="7" builtinId="49"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -264,6 +439,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3729</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>439264</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="85725"/>
+          <a:ext cx="975279" cy="353539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>984804</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>20164</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="4191000"/>
+          <a:ext cx="975279" cy="353539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -529,174 +797,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="17.25" customWidth="1"/>
-    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="C4" s="16"/>
+      <c r="D4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="C6" s="16"/>
+      <c r="D6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="C7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="C8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>6</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -707,7 +989,7 @@
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -718,7 +1000,7 @@
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -729,7 +1011,7 @@
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -740,7 +1022,7 @@
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -750,143 +1032,169 @@
       <c r="I14" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="E17" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="E17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
         <v>1</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="C20" s="16"/>
+      <c r="D20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
         <v>2</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
         <v>3</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="C22" s="16"/>
+      <c r="D22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
         <v>4</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="C23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="21"/>
+    </row>
+    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
         <v>5</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="C24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <v>6</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.5" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -894,30 +1202,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="2" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>22</v>
+      <c r="A1" s="2"/>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -925,17 +1233,17 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>25</v>
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -943,88 +1251,319 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="12"/>
+      <c r="B3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>25</v>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="12"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.5" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="25" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="22.42578125" style="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>3</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>4</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>5</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>6</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>7</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
+++ b/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
@@ -25,6 +25,64 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>USER</author>
+  </authors>
+  <commentList>
+    <comment ref="D4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+DONE</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+DONE</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="40">
   <si>
@@ -152,7 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +283,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1338,11 +1409,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,5 +1636,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
+++ b/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
@@ -25,64 +25,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>USER</author>
-  </authors>
-  <commentList>
-    <comment ref="D4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>USER:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-DONE</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>USER:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-DONE</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="40">
   <si>
@@ -210,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,19 +225,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1409,11 +1338,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,6 +1565,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
+++ b/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
@@ -1342,7 +1342,7 @@
   <dimension ref="A3:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
+++ b/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
@@ -25,8 +25,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>USER</author>
+  </authors>
+  <commentList>
+    <comment ref="H7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+DONE</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Done</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="39">
   <si>
     <t>Thứ 2</t>
   </si>
@@ -125,9 +183,6 @@
   </si>
   <si>
     <t>Soạn E1-K2</t>
-  </si>
-  <si>
-    <t>Soạn S&amp;L Online</t>
   </si>
   <si>
     <t>Soạn 500-700 Online 1</t>
@@ -152,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +280,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -943,13 +1011,13 @@
         <v>25</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>25</v>
@@ -965,11 +1033,11 @@
         <v>29</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
@@ -1158,13 +1226,13 @@
         <v>25</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>25</v>
@@ -1180,11 +1248,11 @@
         <v>29</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
@@ -1338,11 +1406,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,22 +1492,16 @@
         <v>30</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>30</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1447,18 +1509,18 @@
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>37</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
@@ -1486,10 +1548,10 @@
         <v>31</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1530,13 +1592,13 @@
         <v>25</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>25</v>
@@ -1544,26 +1606,8 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>7</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
+++ b/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
@@ -31,6 +31,126 @@
     <author>USER</author>
   </authors>
   <commentList>
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+DONE</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+DONE</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -76,6 +196,30 @@
           </rPr>
           <t xml:space="preserve">
 Done</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -1410,7 +1554,7 @@
   <dimension ref="A3:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
+++ b/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
@@ -25,210 +25,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>USER</author>
-  </authors>
-  <commentList>
-    <comment ref="C4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>USER:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>USER:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>USER:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>USER:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-DONE</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>USER:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-DONE</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>USER:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-DONE</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>USER:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Done</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>USER:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="41">
   <si>
     <t>Thứ 2</t>
   </si>
@@ -323,15 +121,6 @@
     <t>Soạn TOEIC 500-700 K1</t>
   </si>
   <si>
-    <t>Soạn E3-K1</t>
-  </si>
-  <si>
-    <t>Soạn E1-K2</t>
-  </si>
-  <si>
-    <t>Soạn 500-700 Online 1</t>
-  </si>
-  <si>
     <t>TOEIC Speaking &amp; Writing</t>
   </si>
   <si>
@@ -345,13 +134,28 @@
   </si>
   <si>
     <t>Soạn TOEIC S&amp;W</t>
+  </si>
+  <si>
+    <t>TOEIC 300-500 Online</t>
+  </si>
+  <si>
+    <t>Soạn TOEIC 300-500 Online</t>
+  </si>
+  <si>
+    <t>TOEIC 300-500 K2</t>
+  </si>
+  <si>
+    <t>E2-K2</t>
+  </si>
+  <si>
+    <t>Thức</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,20 +230,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,6 +322,11 @@
         <fgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -549,7 +365,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -558,8 +374,9 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -629,14 +446,24 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Accent3" xfId="4" builtinId="37"/>
     <cellStyle name="Accent4" xfId="5" builtinId="41"/>
     <cellStyle name="Accent5" xfId="6" builtinId="45"/>
     <cellStyle name="Accent6" xfId="7" builtinId="49"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1155,13 +982,13 @@
         <v>25</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>25</v>
@@ -1177,11 +1004,11 @@
         <v>29</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
@@ -1370,13 +1197,13 @@
         <v>25</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>25</v>
@@ -1392,11 +1219,11 @@
         <v>29</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
@@ -1550,11 +1377,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,7 +1393,7 @@
     <col min="5" max="5" width="24.140625" style="25" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" style="25" customWidth="1"/>
     <col min="7" max="7" width="23.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="22.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="27.140625" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1605,21 +1432,15 @@
       <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>32</v>
-      </c>
+      <c r="C4" s="24"/>
       <c r="D4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>32</v>
-      </c>
+      <c r="E4" s="24"/>
       <c r="F4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="G4" s="16"/>
       <c r="H4" s="17" t="s">
         <v>24</v>
       </c>
@@ -1636,16 +1457,22 @@
         <v>30</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>30</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1653,21 +1480,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
@@ -1676,26 +1497,20 @@
       <c r="B7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>31</v>
-      </c>
+      <c r="C7" s="16"/>
       <c r="D7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>31</v>
-      </c>
+      <c r="E7" s="16"/>
       <c r="F7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>33</v>
+      <c r="G7" s="16"/>
+      <c r="H7" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1705,23 +1520,23 @@
       <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>28</v>
+      <c r="C8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="I8" s="21"/>
     </row>
@@ -1733,25 +1548,25 @@
         <v>11</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
+++ b/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="45">
   <si>
     <t>Thứ 2</t>
   </si>
@@ -127,28 +127,40 @@
     <t>14h-15h</t>
   </si>
   <si>
-    <t>Soạn TOEIC 300-500 K2</t>
-  </si>
-  <si>
     <t>Speaking &amp;Listening Online</t>
   </si>
   <si>
-    <t>Soạn TOEIC S&amp;W</t>
-  </si>
-  <si>
-    <t>TOEIC 300-500 Online</t>
-  </si>
-  <si>
-    <t>Soạn TOEIC 300-500 Online</t>
-  </si>
-  <si>
     <t>TOEIC 300-500 K2</t>
   </si>
   <si>
     <t>E2-K2</t>
   </si>
   <si>
-    <t>Thức</t>
+    <t>TOEIC 300-500 Online K1</t>
+  </si>
+  <si>
+    <t>TOEIC 300-500 Online K2</t>
+  </si>
+  <si>
+    <t>Soạn TOEIC 300-500 Online K1</t>
+  </si>
+  <si>
+    <t>TOEIC 500-700 Online K1</t>
+  </si>
+  <si>
+    <t>TOEIC 300-500 K3</t>
+  </si>
+  <si>
+    <t>Soạn TOEIC 300-500 K2|K3</t>
+  </si>
+  <si>
+    <t>Soạn E2-K2</t>
+  </si>
+  <si>
+    <t>Soạn TOEIC 300-500 Online K2</t>
+  </si>
+  <si>
+    <t>Soạn TOEIC 500-700 Online K1</t>
   </si>
 </sst>
 </file>
@@ -237,20 +249,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,6 +340,12 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -365,7 +384,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -375,8 +394,9 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -446,17 +466,24 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Accent3" xfId="4" builtinId="37"/>
@@ -982,13 +1009,13 @@
         <v>25</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>25</v>
@@ -1197,13 +1224,13 @@
         <v>25</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>25</v>
@@ -1381,7 +1408,7 @@
   <dimension ref="A3:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,11 +1416,10 @@
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="25" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="25" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="27.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="30.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1436,15 +1462,21 @@
       <c r="D4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="F4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="29" t="s">
+        <v>42</v>
+      </c>
       <c r="H4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="16"/>
+      <c r="I4" s="18" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
@@ -1457,21 +1489,21 @@
         <v>30</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="27" t="s">
+      <c r="H5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="28" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1482,11 +1514,13 @@
       <c r="B6" s="16" t="s">
         <v>32</v>
       </c>
+      <c r="C6" s="29"/>
       <c r="D6" s="16"/>
-      <c r="E6" s="24"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="16"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="28" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1497,20 +1531,26 @@
       <c r="B7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>40</v>
+      <c r="C7" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1520,23 +1560,23 @@
       <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>39</v>
+      <c r="C8" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="I8" s="21"/>
     </row>
@@ -1548,21 +1588,17 @@
         <v>11</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>31</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D9" s="27"/>
       <c r="E9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>31</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F9" s="27"/>
       <c r="G9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="21"/>
+        <v>34</v>
+      </c>
+      <c r="H9" s="16"/>
       <c r="I9" s="21"/>
     </row>
   </sheetData>

--- a/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
+++ b/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
@@ -25,6 +25,88 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>USER</author>
+  </authors>
+  <commentList>
+    <comment ref="E4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Lớp chị Chúc cuối tuần</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Lớp anh Đức cuối tuần</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Lớp anh Thức cuối tuần</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="45">
   <si>
@@ -167,7 +249,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +344,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -347,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -370,19 +465,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -396,7 +478,7 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -457,9 +539,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -469,16 +548,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -872,7 +948,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.140625" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" customWidth="1"/>
@@ -1030,11 +1106,11 @@
       <c r="B9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="23"/>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="25" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="23"/>
@@ -1245,11 +1321,11 @@
       <c r="B25" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="23"/>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="25" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="23"/>
@@ -1404,22 +1480,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="30.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="27.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="30.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1458,17 +1534,17 @@
       <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="16" t="s">
         <v>42</v>
       </c>
       <c r="H4" s="17" t="s">
@@ -1485,25 +1561,25 @@
       <c r="B5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="27" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1514,13 +1590,13 @@
       <c r="B6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="29"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="16"/>
-      <c r="E6" s="29"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="29"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="27" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1531,19 +1607,19 @@
       <c r="B7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="16" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="20" t="s">
@@ -1560,19 +1636,19 @@
       <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="28" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="29" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="19" t="s">
@@ -1590,11 +1666,11 @@
       <c r="C9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="13" t="s">
         <v>34</v>
       </c>
@@ -1604,5 +1680,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
+++ b/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
@@ -55,6 +55,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="I4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+8:15-9:45</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
@@ -103,6 +127,126 @@
         </r>
       </text>
     </comment>
+    <comment ref="H5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+9:30-11:00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10:00-11:30</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13:30-15:00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15:00-17:00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15:30-17:30</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -221,9 +365,6 @@
     <t>TOEIC 300-500 Online K1</t>
   </si>
   <si>
-    <t>TOEIC 300-500 Online K2</t>
-  </si>
-  <si>
     <t>Soạn TOEIC 300-500 Online K1</t>
   </si>
   <si>
@@ -243,6 +384,9 @@
   </si>
   <si>
     <t>Soạn TOEIC 500-700 Online K1</t>
+  </si>
+  <si>
+    <t>TOEIC 500-700 Online K2</t>
   </si>
 </sst>
 </file>
@@ -1483,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,19 +1683,19 @@
         <v>24</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1565,19 +1709,19 @@
         <v>30</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>36</v>
@@ -1608,25 +1752,25 @@
         <v>9</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="E7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="G7" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1637,19 +1781,19 @@
         <v>10</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>35</v>

--- a/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
+++ b/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\Thoi Khoa Bieu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Success\SVN\Thoi Khoa Bieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,232 +25,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>USER</author>
-  </authors>
-  <commentList>
-    <comment ref="E4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>USER:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Lớp chị Chúc cuối tuần</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>USER:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-8:15-9:45</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>USER:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Lớp anh Đức cuối tuần</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>USER:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Lớp anh Thức cuối tuần</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>USER:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-9:30-11:00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>USER:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-10:00-11:30</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>USER:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-13:30-15:00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>USER:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-15:00-17:00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>USER:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-15:30-17:30</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="45">
   <si>
@@ -365,6 +139,9 @@
     <t>TOEIC 300-500 Online K1</t>
   </si>
   <si>
+    <t>TOEIC 300-500 Online K2</t>
+  </si>
+  <si>
     <t>Soạn TOEIC 300-500 Online K1</t>
   </si>
   <si>
@@ -384,16 +161,13 @@
   </si>
   <si>
     <t>Soạn TOEIC 500-700 Online K1</t>
-  </si>
-  <si>
-    <t>TOEIC 500-700 Online K2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,19 +262,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -586,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -609,6 +370,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -622,7 +396,7 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -683,6 +457,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -692,13 +469,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1092,7 +872,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.140625" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" customWidth="1"/>
@@ -1250,11 +1030,11 @@
       <c r="B9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="26" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="23"/>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="26" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="23"/>
@@ -1465,11 +1245,11 @@
       <c r="B25" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="26" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="23"/>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="26" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="23"/>
@@ -1624,22 +1404,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="30.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="27.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="30.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1678,24 +1458,24 @@
       <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>43</v>
+      <c r="E4" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>41</v>
+      <c r="G4" s="28" t="s">
+        <v>42</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1709,21 +1489,21 @@
         <v>30</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="31" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1740,7 +1520,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="31" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1751,26 +1531,26 @@
       <c r="B7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="16" t="s">
+      <c r="D7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>40</v>
+      <c r="F7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1780,20 +1560,20 @@
       <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>39</v>
+      <c r="C8" s="30" t="s">
+        <v>40</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>35</v>
@@ -1810,11 +1590,11 @@
       <c r="C9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="13" t="s">
         <v>34</v>
       </c>
@@ -1824,6 +1604,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
+++ b/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Success\SVN\Thoi Khoa Bieu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\Thoi Khoa Bieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,6 +25,232 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>USER</author>
+  </authors>
+  <commentList>
+    <comment ref="E4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Lớp chị Chúc cuối tuần</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+8:15-9:45</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Lớp anh Đức cuối tuần</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Lớp anh Thức cuối tuần</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+9:30-11:00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10:00-11:30</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13:30-15:00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15:00-17:00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15:30-17:30</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="45">
   <si>
@@ -139,9 +365,6 @@
     <t>TOEIC 300-500 Online K1</t>
   </si>
   <si>
-    <t>TOEIC 300-500 Online K2</t>
-  </si>
-  <si>
     <t>Soạn TOEIC 300-500 Online K1</t>
   </si>
   <si>
@@ -157,17 +380,20 @@
     <t>Soạn E2-K2</t>
   </si>
   <si>
-    <t>Soạn TOEIC 300-500 Online K2</t>
-  </si>
-  <si>
     <t>Soạn TOEIC 500-700 Online K1</t>
+  </si>
+  <si>
+    <t>TOEIC 500-700 Online K2</t>
+  </si>
+  <si>
+    <t>Soạn TOEIC 500-700 Online K2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +488,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -347,7 +586,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -370,19 +609,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -396,7 +622,7 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -457,9 +683,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -469,16 +692,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -872,7 +1092,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.140625" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" customWidth="1"/>
@@ -1030,11 +1250,11 @@
       <c r="B9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="23"/>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="25" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="23"/>
@@ -1245,11 +1465,11 @@
       <c r="B25" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="23"/>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="25" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="23"/>
@@ -1404,22 +1624,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="30.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="27.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="30.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1458,24 +1678,24 @@
       <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>44</v>
+      <c r="E4" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>42</v>
+      <c r="G4" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1489,21 +1709,21 @@
         <v>30</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="27" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1520,7 +1740,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="27" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1531,26 +1751,26 @@
       <c r="B7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>41</v>
+      <c r="G7" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1560,20 +1780,20 @@
       <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>40</v>
+      <c r="C8" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>35</v>
@@ -1590,11 +1810,11 @@
       <c r="C9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="13" t="s">
         <v>34</v>
       </c>
@@ -1604,5 +1824,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
+++ b/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
@@ -252,7 +252,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="43">
   <si>
     <t>Thứ 2</t>
   </si>
@@ -359,9 +359,6 @@
     <t>TOEIC 300-500 K2</t>
   </si>
   <si>
-    <t>E2-K2</t>
-  </si>
-  <si>
     <t>TOEIC 300-500 Online K1</t>
   </si>
   <si>
@@ -375,9 +372,6 @@
   </si>
   <si>
     <t>Soạn TOEIC 300-500 K2|K3</t>
-  </si>
-  <si>
-    <t>Soạn E2-K2</t>
   </si>
   <si>
     <t>Soạn TOEIC 500-700 Online K1</t>
@@ -622,7 +616,7 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -699,6 +693,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1628,7 +1625,7 @@
   <dimension ref="A3:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,19 +1680,17 @@
         <v>24</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>41</v>
-      </c>
+      <c r="G4" s="16"/>
       <c r="H4" s="17" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1709,22 +1704,22 @@
         <v>30</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1741,7 +1736,7 @@
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1752,25 +1747,21 @@
         <v>9</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="16" t="s">
+      <c r="I7" s="20" t="s">
         <v>41</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1781,23 +1772,17 @@
         <v>10</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>35</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D8" s="30"/>
       <c r="E8" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>35</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F8" s="30"/>
       <c r="G8" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>35</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="H8" s="30"/>
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">

--- a/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
+++ b/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
@@ -31,54 +31,6 @@
     <author>USER</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>USER:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Lớp chị Chúc cuối tuần</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>USER:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-8:15-9:45</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
@@ -124,30 +76,6 @@
           </rPr>
           <t xml:space="preserve">
 Lớp anh Thức cuối tuần</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>USER:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-9:30-11:00</t>
         </r>
       </text>
     </comment>
@@ -252,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="41">
   <si>
     <t>Thứ 2</t>
   </si>
@@ -365,16 +293,10 @@
     <t>Soạn TOEIC 300-500 Online K1</t>
   </si>
   <si>
-    <t>TOEIC 500-700 Online K1</t>
-  </si>
-  <si>
     <t>TOEIC 300-500 K3</t>
   </si>
   <si>
     <t>Soạn TOEIC 300-500 K2|K3</t>
-  </si>
-  <si>
-    <t>Soạn TOEIC 500-700 Online K1</t>
   </si>
   <si>
     <t>TOEIC 500-700 Online K2</t>
@@ -616,7 +538,7 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -696,6 +618,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1625,7 +1550,7 @@
   <dimension ref="A3:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,7 +1605,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>24</v>
@@ -1689,9 +1614,7 @@
       <c r="H4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
@@ -1706,18 +1629,13 @@
       <c r="D5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="F5" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="H5" s="31"/>
       <c r="I5" s="27" t="s">
         <v>35</v>
       </c>
@@ -1747,21 +1665,21 @@
         <v>9</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>41</v>
-      </c>
       <c r="I7" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1772,15 +1690,15 @@
         <v>10</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="21"/>

--- a/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
+++ b/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
@@ -25,162 +25,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>USER</author>
-  </authors>
-  <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>USER:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Lớp anh Đức cuối tuần</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>USER:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Lớp anh Thức cuối tuần</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>USER:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-10:00-11:30</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>USER:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-13:30-15:00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>USER:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-15:00-17:00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>USER:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-15:30-17:30</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="37">
   <si>
     <t>Thứ 2</t>
   </si>
@@ -287,29 +133,17 @@
     <t>TOEIC 300-500 K2</t>
   </si>
   <si>
-    <t>TOEIC 300-500 Online K1</t>
-  </si>
-  <si>
-    <t>Soạn TOEIC 300-500 Online K1</t>
-  </si>
-  <si>
     <t>TOEIC 300-500 K3</t>
   </si>
   <si>
     <t>Soạn TOEIC 300-500 K2|K3</t>
-  </si>
-  <si>
-    <t>TOEIC 500-700 Online K2</t>
-  </si>
-  <si>
-    <t>Soạn TOEIC 500-700 Online K2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,19 +237,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="16">
@@ -538,7 +359,7 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -608,9 +429,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -621,6 +439,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1546,11 +1370,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,7 +1438,7 @@
       <c r="H4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="31"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
@@ -1626,19 +1450,13 @@
       <c r="C5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="D5" s="16"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="27" t="s">
-        <v>35</v>
-      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
@@ -1653,9 +1471,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="27" t="s">
-        <v>35</v>
-      </c>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
@@ -1665,22 +1481,18 @@
         <v>9</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>39</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
@@ -1689,18 +1501,18 @@
       <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="30"/>
+      <c r="C8" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="29"/>
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1727,6 +1539,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
+++ b/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Thứ 2</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Soạn TOEIC 300-500 K2|K3</t>
+  </si>
+  <si>
+    <t>TOEIC 500-700 Online K2</t>
   </si>
 </sst>
 </file>
@@ -149,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,11 +178,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
       </patternFill>
     </fill>
     <fill>
@@ -228,16 +226,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -259,37 +256,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="40% - Accent4" xfId="8" builtinId="43"/>
+  <cellStyles count="8">
+    <cellStyle name="40% - Accent4" xfId="7" builtinId="43"/>
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
     <cellStyle name="Accent3" xfId="3" builtinId="37"/>
-    <cellStyle name="Accent4" xfId="4" builtinId="41"/>
-    <cellStyle name="Accent5" xfId="5" builtinId="45"/>
-    <cellStyle name="Accent6" xfId="6" builtinId="49"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27"/>
+    <cellStyle name="Accent5" xfId="4" builtinId="45"/>
+    <cellStyle name="Accent6" xfId="5" builtinId="49"/>
+    <cellStyle name="Bad" xfId="6" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -619,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,8 +733,12 @@
       <c r="G8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="H8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">

--- a/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
+++ b/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\Thoi Khoa Bieu\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="TKB" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Thứ 2</t>
   </si>
@@ -87,6 +82,9 @@
   </si>
   <si>
     <t>TOEIC 500-700 Online K2</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -393,7 +391,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,7 +426,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -605,7 +603,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -613,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:I10"/>
+  <dimension ref="A4:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,6 +780,11 @@
       <c r="H10" s="3"/>
       <c r="I10" s="5"/>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E14" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
+++ b/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\Thoi Khoa Bieu\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Thứ 2</t>
   </si>
@@ -82,9 +87,6 @@
   </si>
   <si>
     <t>TOEIC 500-700 Online K2</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
 </sst>
 </file>
@@ -603,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -611,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:I14"/>
+  <dimension ref="A4:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,11 +782,6 @@
       <c r="H10" s="3"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E14" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
+++ b/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
@@ -77,16 +77,16 @@
     <t>14h-15h</t>
   </si>
   <si>
-    <t>TOEIC 300-500 K2</t>
-  </si>
-  <si>
-    <t>TOEIC 300-500 K3</t>
-  </si>
-  <si>
-    <t>Soạn TOEIC 300-500 K2|K3</t>
-  </si>
-  <si>
     <t>TOEIC 500-700 Online K2</t>
+  </si>
+  <si>
+    <t>TOEIC 300-500 K5</t>
+  </si>
+  <si>
+    <t>TOEIC 500-700 K2</t>
+  </si>
+  <si>
+    <t>TOEI 300 - 500 K4</t>
   </si>
 </sst>
 </file>
@@ -138,21 +138,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,12 +193,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -226,7 +220,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -234,9 +228,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,27 +252,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="40% - Accent4" xfId="7" builtinId="43"/>
+  <cellStyles count="7">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
     <cellStyle name="Accent3" xfId="3" builtinId="37"/>
@@ -615,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +666,7 @@
       <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -697,8 +683,8 @@
       <c r="G6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -713,7 +699,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="12"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -722,22 +708,16 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>20</v>
+      <c r="G8" s="3"/>
+      <c r="H8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -747,18 +727,24 @@
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9" t="s">
+      <c r="F9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -769,15 +755,15 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="5"/>

--- a/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
+++ b/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Thứ 2</t>
   </si>
@@ -68,16 +68,7 @@
     <t>Thời gian</t>
   </si>
   <si>
-    <t>TOEIC 500-700 K1</t>
-  </si>
-  <si>
-    <t>Soạn TOEIC 500-700 K1</t>
-  </si>
-  <si>
     <t>14h-15h</t>
-  </si>
-  <si>
-    <t>TOEIC 500-700 Online K2</t>
   </si>
   <si>
     <t>TOEIC 300-500 K5</t>
@@ -240,9 +231,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -258,10 +246,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -602,18 +593,18 @@
   <dimension ref="A4:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="30.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="27.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="30.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -653,20 +644,12 @@
         <v>7</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="8"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -675,23 +658,19 @@
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -699,7 +678,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="9"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -713,12 +692,8 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -728,24 +703,24 @@
         <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -755,18 +730,18 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
+++ b/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Thứ 2</t>
   </si>
@@ -77,7 +77,10 @@
     <t>TOEIC 500-700 K2</t>
   </si>
   <si>
-    <t>TOEI 300 - 500 K4</t>
+    <t>TOEIC 500-700 K3</t>
+  </si>
+  <si>
+    <t>TOEIC 300-500 K4</t>
   </si>
 </sst>
 </file>
@@ -143,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,11 +172,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
       </patternFill>
     </fill>
     <fill>
@@ -211,16 +209,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,16 +234,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -255,14 +249,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
     <cellStyle name="Accent3" xfId="3" builtinId="37"/>
-    <cellStyle name="Accent5" xfId="4" builtinId="45"/>
-    <cellStyle name="Accent6" xfId="5" builtinId="49"/>
-    <cellStyle name="Bad" xfId="6" builtinId="27"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -592,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,12 +643,12 @@
         <v>7</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="10"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="10"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -662,8 +661,8 @@
       <c r="D6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -678,7 +677,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="8"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -692,8 +691,8 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -702,23 +701,23 @@
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>17</v>
+      <c r="H9" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="I9" s="4"/>
     </row>
@@ -732,20 +731,26 @@
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="G10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="I10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
+++ b/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Thứ 2</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>TOEIC 300-500 K4</t>
+  </si>
+  <si>
+    <t>TOEIC 500-700 Online K2</t>
   </si>
 </sst>
 </file>
@@ -246,13 +249,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -591,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,8 +694,12 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="H8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -701,19 +708,19 @@
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="8" t="s">
@@ -731,19 +738,19 @@
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="4"/>

--- a/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
+++ b/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\Thoi Khoa Bieu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\SVN\Thoi Khoa Bieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -74,16 +74,16 @@
     <t>TOEIC 300-500 K5</t>
   </si>
   <si>
-    <t>TOEIC 500-700 K2</t>
-  </si>
-  <si>
     <t>TOEIC 500-700 K3</t>
   </si>
   <si>
-    <t>TOEIC 300-500 K4</t>
-  </si>
-  <si>
     <t>TOEIC 500-700 Online K2</t>
+  </si>
+  <si>
+    <t>TOEIC 300-500 K6</t>
+  </si>
+  <si>
+    <t>TOEIC 500-700 K4</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
   <dimension ref="A4:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,10 +695,10 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -736,22 +736,22 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="I10" s="4"/>
     </row>

--- a/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
+++ b/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\SVN\Thoi Khoa Bieu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SUCCESS - github\trunk\Thoi Khoa Bieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,12 +71,6 @@
     <t>14h-15h</t>
   </si>
   <si>
-    <t>TOEIC 300-500 K5</t>
-  </si>
-  <si>
-    <t>TOEIC 500-700 K3</t>
-  </si>
-  <si>
     <t>TOEIC 500-700 Online K2</t>
   </si>
   <si>
@@ -84,6 +78,12 @@
   </si>
   <si>
     <t>TOEIC 500-700 K4</t>
+  </si>
+  <si>
+    <t>TOEIC 500-700 K5</t>
+  </si>
+  <si>
+    <t>TOEIC 300-500 K7</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
   <dimension ref="A4:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,10 +695,10 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -709,22 +709,22 @@
         <v>10</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I9" s="4"/>
     </row>
@@ -736,22 +736,22 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I10" s="4"/>
     </row>

--- a/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
+++ b/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Thứ 2</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>14h-15h</t>
-  </si>
-  <si>
-    <t>TOEIC 500-700 Online K2</t>
   </si>
   <si>
     <t>TOEIC 300-500 K6</t>
@@ -220,7 +217,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -253,9 +250,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -595,7 +589,7 @@
   <dimension ref="A4:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H8" sqref="H8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,12 +688,8 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -709,22 +699,22 @@
         <v>10</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="4"/>
     </row>
@@ -736,22 +726,22 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="I10" s="4"/>
     </row>

--- a/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
+++ b/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Thứ 2</t>
   </si>
@@ -69,12 +69,6 @@
   </si>
   <si>
     <t>14h-15h</t>
-  </si>
-  <si>
-    <t>TOEIC 300-500 K6</t>
-  </si>
-  <si>
-    <t>TOEIC 500-700 K4</t>
   </si>
   <si>
     <t>TOEIC 500-700 K5</t>
@@ -589,7 +583,7 @@
   <dimension ref="A4:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:I8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,23 +693,17 @@
         <v>10</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D9" s="8"/>
       <c r="E9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F9" s="8"/>
       <c r="G9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H9" s="8"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -725,23 +713,17 @@
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I10" s="4"/>
     </row>

--- a/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
+++ b/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
@@ -71,10 +71,10 @@
     <t>14h-15h</t>
   </si>
   <si>
-    <t>TOEIC 500-700 K5</t>
-  </si>
-  <si>
-    <t>TOEIC 300-500 K7</t>
+    <t>TOEIC B K6</t>
+  </si>
+  <si>
+    <t>TOEIC A K8</t>
   </si>
 </sst>
 </file>
@@ -583,7 +583,7 @@
   <dimension ref="A4:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,18 +692,18 @@
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="8"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -713,18 +713,18 @@
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="11" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="11" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="H10" s="11"/>
       <c r="I10" s="4"/>
     </row>
   </sheetData>

--- a/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
+++ b/Thoi Khoa Bieu/Thoi khoa bieu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SUCCESS - github\trunk\Thoi Khoa Bieu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Success\New SVN-Github\trunk\Thoi Khoa Bieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Thứ 2</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>TOEIC A K8</t>
+  </si>
+  <si>
+    <t>TOEIC A K9</t>
+  </si>
+  <si>
+    <t>TOEIC B K7</t>
   </si>
 </sst>
 </file>
@@ -583,7 +589,7 @@
   <dimension ref="A4:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,15 +698,21 @@
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="D9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="F9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="H9" s="8" t="s">
         <v>16</v>
       </c>
@@ -716,15 +728,21 @@
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="11"/>
+      <c r="H10" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I10" s="4"/>
     </row>
   </sheetData>
